--- a/cpu21-riscv/RISC-V单周期硬布线控制器表达式自动生成（2022-8-19）.xlsx
+++ b/cpu21-riscv/RISC-V单周期硬布线控制器表达式自动生成（2022-8-19）.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\RISCV\2024秋硬件综合训练课设资料发布包\cpu21-riscv\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\HUST-CSCONS-DESIGN\cpu21-riscv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28BA366D-EB3B-4E30-A7D2-7E112F283042}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1397C54-25C4-47D1-A382-04D132D8898F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1164" yWindow="1068" windowWidth="23040" windowHeight="12120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2796" yWindow="2232" windowWidth="21348" windowHeight="11124" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="真值表" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="129">
   <si>
     <t>#</t>
   </si>
@@ -2317,8 +2317,8 @@
   </sheetPr>
   <dimension ref="A1:AN62"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD7"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Z1" sqref="Z1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" x14ac:dyDescent="0.4"/>
@@ -4749,8 +4749,8 @@
       <c r="D26" s="37">
         <v>0</v>
       </c>
-      <c r="E26" s="29">
-        <v>33</v>
+      <c r="E26" s="29" t="s">
+        <v>116</v>
       </c>
       <c r="F26" s="20">
         <f t="shared" si="8"/>
@@ -4774,23 +4774,23 @@
       </c>
       <c r="K26" s="36">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L26" s="36">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M26" s="36">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N26" s="36">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O26" s="64">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P26" s="38">
         <v>3</v>
@@ -4813,9 +4813,7 @@
       </c>
       <c r="U26" s="31"/>
       <c r="V26" s="31"/>
-      <c r="W26" s="31">
-        <v>1</v>
-      </c>
+      <c r="W26" s="31"/>
       <c r="X26" s="31">
         <v>1</v>
       </c>
@@ -4852,8 +4850,8 @@
       <c r="D27" s="59">
         <v>7</v>
       </c>
-      <c r="E27" s="61">
-        <v>33</v>
+      <c r="E27" s="61" t="s">
+        <v>116</v>
       </c>
       <c r="F27" s="59">
         <f t="shared" si="8"/>
@@ -4877,23 +4875,23 @@
       </c>
       <c r="K27" s="60">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L27" s="60">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M27" s="60">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N27" s="60">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O27" s="65">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P27" s="62">
         <v>4</v>
@@ -4916,9 +4914,7 @@
       </c>
       <c r="U27" s="57"/>
       <c r="V27" s="57"/>
-      <c r="W27" s="57">
-        <v>1</v>
-      </c>
+      <c r="W27" s="57"/>
       <c r="X27" s="57">
         <v>1</v>
       </c>
@@ -4956,7 +4952,7 @@
         <v>4</v>
       </c>
       <c r="E28" s="29">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F28" s="20" t="str">
         <f t="shared" si="8"/>
@@ -4992,11 +4988,11 @@
       </c>
       <c r="N28" s="36">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O28" s="64">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P28" s="38">
         <v>5</v>
@@ -5059,7 +5055,7 @@
         <v>6</v>
       </c>
       <c r="E29" s="61">
-        <v>63</v>
+        <v>18</v>
       </c>
       <c r="F29" s="59" t="str">
         <f t="shared" si="8"/>
@@ -5083,11 +5079,11 @@
       </c>
       <c r="K29" s="60">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L29" s="60">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M29" s="60">
         <f t="shared" si="5"/>
@@ -5095,18 +5091,18 @@
       </c>
       <c r="N29" s="60">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O29" s="65">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P29" s="62">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="Q29" s="63">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R29" s="63">
         <f t="shared" si="11"/>
@@ -5114,7 +5110,7 @@
       </c>
       <c r="S29" s="63">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T29" s="63">
         <f t="shared" si="13"/>
@@ -5125,7 +5121,9 @@
       <c r="W29" s="57"/>
       <c r="X29" s="57"/>
       <c r="Y29" s="57"/>
-      <c r="Z29" s="57"/>
+      <c r="Z29" s="57">
+        <v>1</v>
+      </c>
       <c r="AA29" s="57"/>
       <c r="AB29" s="57"/>
       <c r="AC29" s="57"/>
@@ -7640,9 +7638,9 @@
   </sheetPr>
   <dimension ref="A1:AX63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A30" sqref="A30"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AB59" sqref="AB59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -11524,9 +11522,9 @@
         <f>IF(ISBLANK(真值表!D26),"",真值表!D26)</f>
         <v>0</v>
       </c>
-      <c r="D26" s="36">
+      <c r="D26" s="36" t="str">
         <f>IF(ISBLANK(真值表!E26),"",真值表!E26)</f>
-        <v>33</v>
+        <v>C</v>
       </c>
       <c r="E26" s="55" t="str">
         <f>IF(真值表!F26=1," "&amp;真值表!F$1&amp;"&amp;",IF(真值表!F26=0,"~"&amp;真值表!F$1&amp;"&amp;",""))</f>
@@ -11550,27 +11548,27 @@
       </c>
       <c r="J26" s="54" t="str">
         <f>IF(真值表!K26=1," "&amp;真值表!K$1&amp;"&amp;",IF(真值表!K26=0,"~"&amp;真值表!K$1&amp;"&amp;",""))</f>
-        <v xml:space="preserve"> OP6&amp;</v>
+        <v>~OP6&amp;</v>
       </c>
       <c r="K26" s="54" t="str">
         <f>IF(真值表!L26=1," "&amp;真值表!L$1&amp;"&amp;",IF(真值表!L26=0,"~"&amp;真值表!L$1&amp;"&amp;",""))</f>
-        <v>~OP5&amp;</v>
+        <v xml:space="preserve"> OP5&amp;</v>
       </c>
       <c r="L26" s="54" t="str">
         <f>IF(真值表!M26=1," "&amp;真值表!M$1&amp;"&amp;",IF(真值表!M26=0,"~"&amp;真值表!M$1&amp;"&amp;",""))</f>
-        <v>~OP4&amp;</v>
+        <v xml:space="preserve"> OP4&amp;</v>
       </c>
       <c r="M26" s="54" t="str">
         <f>IF(真值表!N26=1," "&amp;真值表!N$1&amp;"&amp;",IF(真值表!N26=0,"~"&amp;真值表!N$1&amp;"&amp;",""))</f>
-        <v xml:space="preserve"> OP3&amp;</v>
+        <v>~OP3&amp;</v>
       </c>
       <c r="N26" s="54" t="str">
         <f>IF(真值表!O26=1," "&amp;真值表!O$1&amp;"&amp;",IF(真值表!O26=0,"~"&amp;真值表!O$1&amp;"&amp;",""))</f>
-        <v xml:space="preserve"> OP2&amp;</v>
+        <v>~OP2&amp;</v>
       </c>
       <c r="O26" s="53" t="str">
         <f t="shared" si="1"/>
-        <v>~F30&amp; F25&amp;~F14&amp;~F13&amp;~F12&amp; OP6&amp;~OP5&amp;~OP4&amp; OP3&amp; OP2</v>
+        <v>~F30&amp; F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2</v>
       </c>
       <c r="P26" s="24" t="str">
         <f>IF(真值表!Q26=1,$O26&amp;"+","")</f>
@@ -11582,11 +11580,11 @@
       </c>
       <c r="R26" s="24" t="str">
         <f>IF(真值表!S26=1,$O26&amp;"+","")</f>
-        <v>~F30&amp; F25&amp;~F14&amp;~F13&amp;~F12&amp; OP6&amp;~OP5&amp;~OP4&amp; OP3&amp; OP2+</v>
+        <v>~F30&amp; F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="S26" s="24" t="str">
         <f>IF(真值表!T26=1,$O26&amp;"+","")</f>
-        <v>~F30&amp; F25&amp;~F14&amp;~F13&amp;~F12&amp; OP6&amp;~OP5&amp;~OP4&amp; OP3&amp; OP2+</v>
+        <v>~F30&amp; F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="T26" s="24" t="str">
         <f>IF(真值表!U26=1,$O26&amp;"+","")</f>
@@ -11598,11 +11596,11 @@
       </c>
       <c r="V26" s="24" t="str">
         <f>IF(真值表!W26=1,$O26&amp;"+","")</f>
-        <v>~F30&amp; F25&amp;~F14&amp;~F13&amp;~F12&amp; OP6&amp;~OP5&amp;~OP4&amp; OP3&amp; OP2+</v>
+        <v/>
       </c>
       <c r="W26" s="24" t="str">
         <f>IF(真值表!X26=1,$O26&amp;"+","")</f>
-        <v>~F30&amp; F25&amp;~F14&amp;~F13&amp;~F12&amp; OP6&amp;~OP5&amp;~OP4&amp; OP3&amp; OP2+</v>
+        <v>~F30&amp; F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="X26" s="24" t="str">
         <f>IF(真值表!Y26=1,$O26&amp;"+","")</f>
@@ -11638,11 +11636,11 @@
       </c>
       <c r="AF26" s="24" t="str">
         <f>IF(真值表!AG26=1,$O26&amp;"+","")</f>
-        <v>~F30&amp; F25&amp;~F14&amp;~F13&amp;~F12&amp; OP6&amp;~OP5&amp;~OP4&amp; OP3&amp; OP2+</v>
+        <v>~F30&amp; F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="AG26" s="24" t="str">
         <f>IF(真值表!AH26=1,$O26&amp;"+","")</f>
-        <v>~F30&amp; F25&amp;~F14&amp;~F13&amp;~F12&amp; OP6&amp;~OP5&amp;~OP4&amp; OP3&amp; OP2+</v>
+        <v>~F30&amp; F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="AH26" s="24" t="str">
         <f>IF(真值表!AI26=1,$O26&amp;"+","")</f>
@@ -11678,9 +11676,9 @@
         <f>IF(ISBLANK(真值表!D27),"",真值表!D27)</f>
         <v>7</v>
       </c>
-      <c r="D27" s="51">
+      <c r="D27" s="51" t="str">
         <f>IF(ISBLANK(真值表!E27),"",真值表!E27)</f>
-        <v>33</v>
+        <v>C</v>
       </c>
       <c r="E27" s="47" t="str">
         <f>IF(真值表!F27=1," "&amp;真值表!F$1&amp;"&amp;",IF(真值表!F27=0,"~"&amp;真值表!F$1&amp;"&amp;",""))</f>
@@ -11704,27 +11702,27 @@
       </c>
       <c r="J27" s="46" t="str">
         <f>IF(真值表!K27=1," "&amp;真值表!K$1&amp;"&amp;",IF(真值表!K27=0,"~"&amp;真值表!K$1&amp;"&amp;",""))</f>
-        <v xml:space="preserve"> OP6&amp;</v>
+        <v>~OP6&amp;</v>
       </c>
       <c r="K27" s="46" t="str">
         <f>IF(真值表!L27=1," "&amp;真值表!L$1&amp;"&amp;",IF(真值表!L27=0,"~"&amp;真值表!L$1&amp;"&amp;",""))</f>
-        <v>~OP5&amp;</v>
+        <v xml:space="preserve"> OP5&amp;</v>
       </c>
       <c r="L27" s="46" t="str">
         <f>IF(真值表!M27=1," "&amp;真值表!M$1&amp;"&amp;",IF(真值表!M27=0,"~"&amp;真值表!M$1&amp;"&amp;",""))</f>
-        <v>~OP4&amp;</v>
+        <v xml:space="preserve"> OP4&amp;</v>
       </c>
       <c r="M27" s="46" t="str">
         <f>IF(真值表!N27=1," "&amp;真值表!N$1&amp;"&amp;",IF(真值表!N27=0,"~"&amp;真值表!N$1&amp;"&amp;",""))</f>
-        <v xml:space="preserve"> OP3&amp;</v>
+        <v>~OP3&amp;</v>
       </c>
       <c r="N27" s="46" t="str">
         <f>IF(真值表!O27=1," "&amp;真值表!O$1&amp;"&amp;",IF(真值表!O27=0,"~"&amp;真值表!O$1&amp;"&amp;",""))</f>
-        <v xml:space="preserve"> OP2&amp;</v>
+        <v>~OP2&amp;</v>
       </c>
       <c r="O27" s="48" t="str">
         <f t="shared" si="1"/>
-        <v>~F30&amp; F25&amp; F14&amp; F13&amp; F12&amp; OP6&amp;~OP5&amp;~OP4&amp; OP3&amp; OP2</v>
+        <v>~F30&amp; F25&amp; F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2</v>
       </c>
       <c r="P27" s="49" t="str">
         <f>IF(真值表!Q27=1,$O27&amp;"+","")</f>
@@ -11732,7 +11730,7 @@
       </c>
       <c r="Q27" s="49" t="str">
         <f>IF(真值表!R27=1,$O27&amp;"+","")</f>
-        <v>~F30&amp; F25&amp; F14&amp; F13&amp; F12&amp; OP6&amp;~OP5&amp;~OP4&amp; OP3&amp; OP2+</v>
+        <v>~F30&amp; F25&amp; F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="R27" s="49" t="str">
         <f>IF(真值表!S27=1,$O27&amp;"+","")</f>
@@ -11752,11 +11750,11 @@
       </c>
       <c r="V27" s="49" t="str">
         <f>IF(真值表!W27=1,$O27&amp;"+","")</f>
-        <v>~F30&amp; F25&amp; F14&amp; F13&amp; F12&amp; OP6&amp;~OP5&amp;~OP4&amp; OP3&amp; OP2+</v>
+        <v/>
       </c>
       <c r="W27" s="49" t="str">
         <f>IF(真值表!X27=1,$O27&amp;"+","")</f>
-        <v>~F30&amp; F25&amp; F14&amp; F13&amp; F12&amp; OP6&amp;~OP5&amp;~OP4&amp; OP3&amp; OP2+</v>
+        <v>~F30&amp; F25&amp; F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="X27" s="49" t="str">
         <f>IF(真值表!Y27=1,$O27&amp;"+","")</f>
@@ -11788,15 +11786,15 @@
       </c>
       <c r="AE27" s="49" t="str">
         <f>IF(真值表!AF27=1,$O27&amp;"+","")</f>
-        <v>~F30&amp; F25&amp; F14&amp; F13&amp; F12&amp; OP6&amp;~OP5&amp;~OP4&amp; OP3&amp; OP2+</v>
+        <v>~F30&amp; F25&amp; F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="AF27" s="49" t="str">
         <f>IF(真值表!AG27=1,$O27&amp;"+","")</f>
-        <v>~F30&amp; F25&amp; F14&amp; F13&amp; F12&amp; OP6&amp;~OP5&amp;~OP4&amp; OP3&amp; OP2+</v>
+        <v>~F30&amp; F25&amp; F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="AG27" s="49" t="str">
         <f>IF(真值表!AH27=1,$O27&amp;"+","")</f>
-        <v>~F30&amp; F25&amp; F14&amp; F13&amp; F12&amp; OP6&amp;~OP5&amp;~OP4&amp; OP3&amp; OP2+</v>
+        <v>~F30&amp; F25&amp; F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="AH27" s="49" t="str">
         <f>IF(真值表!AI27=1,$O27&amp;"+","")</f>
@@ -11834,7 +11832,7 @@
       </c>
       <c r="D28" s="36">
         <f>IF(ISBLANK(真值表!E28),"",真值表!E28)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E28" s="55" t="str">
         <f>IF(真值表!F28=1," "&amp;真值表!F$1&amp;"&amp;",IF(真值表!F28=0,"~"&amp;真值表!F$1&amp;"&amp;",""))</f>
@@ -11870,15 +11868,15 @@
       </c>
       <c r="M28" s="54" t="str">
         <f>IF(真值表!N28=1," "&amp;真值表!N$1&amp;"&amp;",IF(真值表!N28=0,"~"&amp;真值表!N$1&amp;"&amp;",""))</f>
-        <v xml:space="preserve"> OP3&amp;</v>
+        <v>~OP3&amp;</v>
       </c>
       <c r="N28" s="54" t="str">
         <f>IF(真值表!O28=1," "&amp;真值表!O$1&amp;"&amp;",IF(真值表!O28=0,"~"&amp;真值表!O$1&amp;"&amp;",""))</f>
-        <v xml:space="preserve"> OP2&amp;</v>
+        <v>~OP2&amp;</v>
       </c>
       <c r="O28" s="53" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve"> F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp;~OP4&amp; OP3&amp; OP2</v>
+        <v xml:space="preserve"> F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2</v>
       </c>
       <c r="P28" s="24" t="str">
         <f>IF(真值表!Q28=1,$O28&amp;"+","")</f>
@@ -11886,7 +11884,7 @@
       </c>
       <c r="Q28" s="24" t="str">
         <f>IF(真值表!R28=1,$O28&amp;"+","")</f>
-        <v xml:space="preserve"> F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp;~OP4&amp; OP3&amp; OP2+</v>
+        <v xml:space="preserve"> F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="R28" s="24" t="str">
         <f>IF(真值表!S28=1,$O28&amp;"+","")</f>
@@ -11894,11 +11892,11 @@
       </c>
       <c r="S28" s="24" t="str">
         <f>IF(真值表!T28=1,$O28&amp;"+","")</f>
-        <v xml:space="preserve"> F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp;~OP4&amp; OP3&amp; OP2+</v>
+        <v xml:space="preserve"> F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="T28" s="24" t="str">
         <f>IF(真值表!U28=1,$O28&amp;"+","")</f>
-        <v xml:space="preserve"> F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp;~OP4&amp; OP3&amp; OP2+</v>
+        <v xml:space="preserve"> F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="U28" s="24" t="str">
         <f>IF(真值表!V28=1,$O28&amp;"+","")</f>
@@ -11906,11 +11904,11 @@
       </c>
       <c r="V28" s="24" t="str">
         <f>IF(真值表!W28=1,$O28&amp;"+","")</f>
-        <v xml:space="preserve"> F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp;~OP4&amp; OP3&amp; OP2+</v>
+        <v xml:space="preserve"> F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="W28" s="24" t="str">
         <f>IF(真值表!X28=1,$O28&amp;"+","")</f>
-        <v xml:space="preserve"> F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp;~OP4&amp; OP3&amp; OP2+</v>
+        <v xml:space="preserve"> F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="X28" s="24" t="str">
         <f>IF(真值表!Y28=1,$O28&amp;"+","")</f>
@@ -11946,7 +11944,7 @@
       </c>
       <c r="AF28" s="24" t="str">
         <f>IF(真值表!AG28=1,$O28&amp;"+","")</f>
-        <v xml:space="preserve"> F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp;~OP4&amp; OP3&amp; OP2+</v>
+        <v xml:space="preserve"> F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="AG28" s="24" t="str">
         <f>IF(真值表!AH28=1,$O28&amp;"+","")</f>
@@ -11954,7 +11952,7 @@
       </c>
       <c r="AH28" s="24" t="str">
         <f>IF(真值表!AI28=1,$O28&amp;"+","")</f>
-        <v xml:space="preserve"> F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp;~OP4&amp; OP3&amp; OP2+</v>
+        <v xml:space="preserve"> F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="AI28" s="24" t="str">
         <f>IF(真值表!AJ28=1,$O28&amp;"+","")</f>
@@ -11988,7 +11986,7 @@
       </c>
       <c r="D29" s="51">
         <f>IF(ISBLANK(真值表!E29),"",真值表!E29)</f>
-        <v>63</v>
+        <v>18</v>
       </c>
       <c r="E29" s="47" t="str">
         <f>IF(真值表!F29=1," "&amp;真值表!F$1&amp;"&amp;",IF(真值表!F29=0,"~"&amp;真值表!F$1&amp;"&amp;",""))</f>
@@ -12012,11 +12010,11 @@
       </c>
       <c r="J29" s="46" t="str">
         <f>IF(真值表!K29=1," "&amp;真值表!K$1&amp;"&amp;",IF(真值表!K29=0,"~"&amp;真值表!K$1&amp;"&amp;",""))</f>
-        <v>~OP6&amp;</v>
+        <v xml:space="preserve"> OP6&amp;</v>
       </c>
       <c r="K29" s="46" t="str">
         <f>IF(真值表!L29=1," "&amp;真值表!L$1&amp;"&amp;",IF(真值表!L29=0,"~"&amp;真值表!L$1&amp;"&amp;",""))</f>
-        <v>~OP5&amp;</v>
+        <v xml:space="preserve"> OP5&amp;</v>
       </c>
       <c r="L29" s="46" t="str">
         <f>IF(真值表!M29=1," "&amp;真值表!M$1&amp;"&amp;",IF(真值表!M29=0,"~"&amp;真值表!M$1&amp;"&amp;",""))</f>
@@ -12024,27 +12022,27 @@
       </c>
       <c r="M29" s="46" t="str">
         <f>IF(真值表!N29=1," "&amp;真值表!N$1&amp;"&amp;",IF(真值表!N29=0,"~"&amp;真值表!N$1&amp;"&amp;",""))</f>
-        <v xml:space="preserve"> OP3&amp;</v>
+        <v>~OP3&amp;</v>
       </c>
       <c r="N29" s="46" t="str">
         <f>IF(真值表!O29=1," "&amp;真值表!O$1&amp;"&amp;",IF(真值表!O29=0,"~"&amp;真值表!O$1&amp;"&amp;",""))</f>
-        <v xml:space="preserve"> OP2&amp;</v>
+        <v>~OP2&amp;</v>
       </c>
       <c r="O29" s="48" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve"> F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp;~OP4&amp; OP3&amp; OP2</v>
+        <v xml:space="preserve"> F14&amp; F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2</v>
       </c>
       <c r="P29" s="49" t="str">
         <f>IF(真值表!Q29=1,$O29&amp;"+","")</f>
-        <v/>
+        <v xml:space="preserve"> F14&amp; F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="Q29" s="49" t="str">
         <f>IF(真值表!R29=1,$O29&amp;"+","")</f>
-        <v xml:space="preserve"> F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp;~OP4&amp; OP3&amp; OP2+</v>
+        <v xml:space="preserve"> F14&amp; F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="R29" s="49" t="str">
         <f>IF(真值表!S29=1,$O29&amp;"+","")</f>
-        <v xml:space="preserve"> F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp;~OP4&amp; OP3&amp; OP2+</v>
+        <v/>
       </c>
       <c r="S29" s="49" t="str">
         <f>IF(真值表!T29=1,$O29&amp;"+","")</f>
@@ -12072,7 +12070,7 @@
       </c>
       <c r="Y29" s="49" t="str">
         <f>IF(真值表!Z29=1,$O29&amp;"+","")</f>
-        <v/>
+        <v xml:space="preserve"> F14&amp; F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="Z29" s="49" t="str">
         <f>IF(真值表!AA29=1,$O29&amp;"+","")</f>
@@ -12100,11 +12098,11 @@
       </c>
       <c r="AF29" s="49" t="str">
         <f>IF(真值表!AG29=1,$O29&amp;"+","")</f>
-        <v xml:space="preserve"> F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp;~OP4&amp; OP3&amp; OP2+</v>
+        <v xml:space="preserve"> F14&amp; F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="AG29" s="49" t="str">
         <f>IF(真值表!AH29=1,$O29&amp;"+","")</f>
-        <v xml:space="preserve"> F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp;~OP4&amp; OP3&amp; OP2+</v>
+        <v xml:space="preserve"> F14&amp; F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="AH29" s="49" t="str">
         <f>IF(真值表!AI29=1,$O29&amp;"+","")</f>
@@ -12112,7 +12110,7 @@
       </c>
       <c r="AI29" s="49" t="str">
         <f>IF(真值表!AJ29=1,$O29&amp;"+","")</f>
-        <v xml:space="preserve"> F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp;~OP4&amp; OP3&amp; OP2+</v>
+        <v xml:space="preserve"> F14&amp; F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="AJ29" s="49" t="str">
         <f>IF(真值表!AK29=1,$O29&amp;"+","")</f>
@@ -16459,23 +16457,23 @@
       <c r="O58" s="81"/>
       <c r="P58" s="30" t="str">
         <f t="shared" ref="P58:AL58" si="2">IF(LEN(P59)&gt;1,LEFT(P59,LEN(P59)-1),"")</f>
-        <v>~F30&amp;~F25&amp; F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2</v>
+        <v>~F30&amp;~F25&amp; F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2</v>
       </c>
       <c r="Q58" s="30" t="str">
         <f t="shared" si="2"/>
-        <v>~F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+ F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp; F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp; OP2+~F30&amp; F25&amp; F14&amp; F13&amp; F12&amp; OP6&amp;~OP5&amp;~OP4&amp; OP3&amp; OP2+ F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp;~OP4&amp; OP3&amp; OP2+ F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp;~OP4&amp; OP3&amp; OP2</v>
+        <v>~F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+ F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp; F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp; OP2+~F30&amp; F25&amp; F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2</v>
       </c>
       <c r="R58" s="30" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve"> F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp; F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp; OP2+~F30&amp; F25&amp;~F14&amp;~F13&amp;~F12&amp; OP6&amp;~OP5&amp;~OP4&amp; OP3&amp; OP2+ F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp;~OP4&amp; OP3&amp; OP2</v>
+        <v xml:space="preserve"> F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp; F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp; OP2+~F30&amp; F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2</v>
       </c>
       <c r="S58" s="32" t="str">
         <f t="shared" si="2"/>
-        <v>~F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp; F25&amp;~F14&amp;~F13&amp;~F12&amp; OP6&amp;~OP5&amp;~OP4&amp; OP3&amp; OP2+ F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp;~OP4&amp; OP3&amp; OP2</v>
+        <v>~F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp; F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2</v>
       </c>
       <c r="T58" s="30" t="str">
         <f t="shared" si="2"/>
-        <v>~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2+ F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp;~OP4&amp; OP3&amp; OP2</v>
+        <v>~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2+ F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2</v>
       </c>
       <c r="U58" s="30" t="str">
         <f t="shared" si="2"/>
@@ -16483,11 +16481,11 @@
       </c>
       <c r="V58" s="32" t="str">
         <f t="shared" si="2"/>
-        <v>~F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp; OP2+~F30&amp; F25&amp;~F14&amp;~F13&amp;~F12&amp; OP6&amp;~OP5&amp;~OP4&amp; OP3&amp; OP2+~F30&amp; F25&amp; F14&amp; F13&amp; F12&amp; OP6&amp;~OP5&amp;~OP4&amp; OP3&amp; OP2+ F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp;~OP4&amp; OP3&amp; OP2</v>
+        <v>~F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp; OP2+ F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2</v>
       </c>
       <c r="W58" s="30" t="str">
         <f t="shared" si="2"/>
-        <v>~F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+ F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2+ OP6&amp; OP5&amp;~OP4&amp; OP3&amp; OP2+~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp; OP2+~F30&amp; F25&amp;~F14&amp;~F13&amp;~F12&amp; OP6&amp;~OP5&amp;~OP4&amp; OP3&amp; OP2+~F30&amp; F25&amp; F14&amp; F13&amp; F12&amp; OP6&amp;~OP5&amp;~OP4&amp; OP3&amp; OP2+ F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp;~OP4&amp; OP3&amp; OP2</v>
+        <v>~F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+ F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2+ OP6&amp; OP5&amp;~OP4&amp; OP3&amp; OP2+~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp; OP2+~F30&amp; F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp; F25&amp; F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2</v>
       </c>
       <c r="X58" s="30" t="str">
         <f t="shared" si="2"/>
@@ -16495,7 +16493,7 @@
       </c>
       <c r="Y58" s="32" t="str">
         <f t="shared" si="2"/>
-        <v>~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2</v>
+        <v>~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2</v>
       </c>
       <c r="Z58" s="30" t="str">
         <f t="shared" si="2"/>
@@ -16519,23 +16517,23 @@
       </c>
       <c r="AE58" s="33" t="str">
         <f t="shared" si="2"/>
-        <v>~F30&amp; F25&amp; F14&amp; F13&amp; F12&amp; OP6&amp;~OP5&amp;~OP4&amp; OP3&amp; OP2</v>
+        <v>~F30&amp; F25&amp; F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2</v>
       </c>
       <c r="AF58" s="30" t="str">
         <f t="shared" si="2"/>
-        <v>~F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+ F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp; F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp; OP2+~F30&amp; F25&amp;~F14&amp;~F13&amp;~F12&amp; OP6&amp;~OP5&amp;~OP4&amp; OP3&amp; OP2+~F30&amp; F25&amp; F14&amp; F13&amp; F12&amp; OP6&amp;~OP5&amp;~OP4&amp; OP3&amp; OP2+ F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp;~OP4&amp; OP3&amp; OP2+ F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp;~OP4&amp; OP3&amp; OP2</v>
+        <v>~F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+ F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp; F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp; OP2+~F30&amp; F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp; F25&amp; F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2</v>
       </c>
       <c r="AG58" s="30" t="str">
         <f t="shared" si="2"/>
-        <v>~F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+ F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp; F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F30&amp; F25&amp;~F14&amp;~F13&amp;~F12&amp; OP6&amp;~OP5&amp;~OP4&amp; OP3&amp; OP2+~F30&amp; F25&amp; F14&amp; F13&amp; F12&amp; OP6&amp;~OP5&amp;~OP4&amp; OP3&amp; OP2+ F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp;~OP4&amp; OP3&amp; OP2</v>
+        <v>~F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+ F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp; F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F30&amp; F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp; F25&amp; F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2</v>
       </c>
       <c r="AH58" s="30" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve"> F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp;~OP4&amp; OP3&amp; OP2</v>
+        <v xml:space="preserve"> F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2</v>
       </c>
       <c r="AI58" s="30" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve"> F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp;~OP4&amp; OP3&amp; OP2</v>
+        <v xml:space="preserve"> F14&amp; F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2</v>
       </c>
       <c r="AJ58" s="30" t="str">
         <f t="shared" si="2"/>
@@ -16554,27 +16552,27 @@
       <c r="P59" t="str">
         <f>CONCATENATE(P2,P3,P4,P5,P6,P7,P8,P9,P10,P11,P12,P13,P14,P15,P16,P17,P18,P19,P20,P21,P22,P23,P24,P25,P26,P27,P28,P29,P30,P31,P32,P33,P34,P35,P36,P37,P38,P39,P40,P41,P42,P43,P44,P45,P46,P47,P48,P49,P50,P51,P52,P53,P54,P55,P56,P57,
 )</f>
-        <v>~F30&amp;~F25&amp; F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+</v>
+        <v>~F30&amp;~F25&amp; F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="Q59" t="str">
         <f>CONCATENATE(Q2,Q3,Q4,Q5,Q6,Q7,Q8,Q9,Q10,Q11,Q12,Q13,Q14,Q15,Q16,Q17,Q18,Q19,Q20,Q21,Q22,Q23,Q24,Q25,Q26,Q27,Q28,Q29,Q30,Q31,Q32,Q33,Q34,Q35,Q36,Q37,Q38,Q39,Q40,Q41,Q42,Q43,Q44,Q45,Q46,Q47,Q48,Q49,Q50,Q51,Q52,Q53,Q54,Q55,Q56,Q57,
 )</f>
-        <v>~F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+ F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp; F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp; OP2+~F30&amp; F25&amp; F14&amp; F13&amp; F12&amp; OP6&amp;~OP5&amp;~OP4&amp; OP3&amp; OP2+ F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp;~OP4&amp; OP3&amp; OP2+ F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp;~OP4&amp; OP3&amp; OP2+</v>
+        <v>~F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+ F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp; F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp; OP2+~F30&amp; F25&amp; F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="R59" t="str">
         <f>CONCATENATE(R2,R3,R4,R5,R6,R7,R8,R9,R10,R11,R12,R13,R14,R15,R16,R17,R18,R19,R20,R21,R22,R23,R24,R25,R26,R27,R28,R29,R30,R31,R32,R33,R34,R35,R36,R37,R38,R39,R40,R41,R42,R43,R44,R45,R46,R47,R48,R49,R50,R51,R52,R53,R54,R55,R56,R57,
 )</f>
-        <v xml:space="preserve"> F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp; F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp; OP2+~F30&amp; F25&amp;~F14&amp;~F13&amp;~F12&amp; OP6&amp;~OP5&amp;~OP4&amp; OP3&amp; OP2+ F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp;~OP4&amp; OP3&amp; OP2+</v>
+        <v xml:space="preserve"> F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp; F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp; OP2+~F30&amp; F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="S59" t="str">
         <f>CONCATENATE(S2,S3,S4,S5,S6,S7,S8,S9,S10,S11,S12,S13,S14,S15,S16,S17,S18,S19,S20,S21,S22,S23,S24,S25,S26,S27,S28,S29,S30,S31,S32,S33,S34,S35,S36,S37,S38,S39,S40,S41,S42,S43,S44,S45,S46,S47,S48,S49,S50,S51,S52,S53,S54,S55,S56,S57,
 )</f>
-        <v>~F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp; F25&amp;~F14&amp;~F13&amp;~F12&amp; OP6&amp;~OP5&amp;~OP4&amp; OP3&amp; OP2+ F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp;~OP4&amp; OP3&amp; OP2+</v>
+        <v>~F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp; F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="T59" t="str">
         <f>CONCATENATE(T2,T3,T4,T5,T6,T7,T8,T9,T10,T11,T12,T13,T14,T15,T16,T17,T18,T19,T20,T21,T22,T23,T24,T25,T26,T27,T28,T29,T30,T31,T32,T33,T34,T35,T36,T37,T38,T39,T40,T41,T42,T43,T44,T45,T46,T47,T48,T49,T50,T51,T52,T53,T54,T55,T56,T57,
 )</f>
-        <v>~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2+ F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp;~OP4&amp; OP3&amp; OP2+</v>
+        <v>~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2+ F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="U59" t="str">
         <f t="shared" ref="U59:AX59" si="3">CONCATENATE(U2,U3,U4,U5,U6,U7,U8,U9,U10,U11,U12,U13,U14,U15,U16,U17,U18,U19,U20,U21,U22,U23,U24,U25,U26,U27,U28,U29,U30,U31,U32,U33,U34,U35,U36,U37,U38,U39,U40,U41,U42,U43,U44,U45,U46,U47,U48,U49,U50,U51,U52,U53,U54,U55,U56,U57,
@@ -16583,11 +16581,11 @@
       </c>
       <c r="V59" t="str">
         <f t="shared" si="3"/>
-        <v>~F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp; OP2+~F30&amp; F25&amp;~F14&amp;~F13&amp;~F12&amp; OP6&amp;~OP5&amp;~OP4&amp; OP3&amp; OP2+~F30&amp; F25&amp; F14&amp; F13&amp; F12&amp; OP6&amp;~OP5&amp;~OP4&amp; OP3&amp; OP2+ F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp;~OP4&amp; OP3&amp; OP2+</v>
+        <v>~F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp; OP2+ F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="W59" t="str">
         <f t="shared" si="3"/>
-        <v>~F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+ F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2+ OP6&amp; OP5&amp;~OP4&amp; OP3&amp; OP2+~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp; OP2+~F30&amp; F25&amp;~F14&amp;~F13&amp;~F12&amp; OP6&amp;~OP5&amp;~OP4&amp; OP3&amp; OP2+~F30&amp; F25&amp; F14&amp; F13&amp; F12&amp; OP6&amp;~OP5&amp;~OP4&amp; OP3&amp; OP2+ F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp;~OP4&amp; OP3&amp; OP2+</v>
+        <v>~F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+ F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2+ OP6&amp; OP5&amp;~OP4&amp; OP3&amp; OP2+~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp; OP2+~F30&amp; F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp; F25&amp; F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="X59" t="str">
         <f t="shared" si="3"/>
@@ -16595,7 +16593,7 @@
       </c>
       <c r="Y59" t="str">
         <f t="shared" si="3"/>
-        <v>~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+</v>
+        <v>~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="Z59" t="str">
         <f t="shared" si="3"/>
@@ -16619,23 +16617,23 @@
       </c>
       <c r="AE59" t="str">
         <f t="shared" si="3"/>
-        <v>~F30&amp; F25&amp; F14&amp; F13&amp; F12&amp; OP6&amp;~OP5&amp;~OP4&amp; OP3&amp; OP2+</v>
+        <v>~F30&amp; F25&amp; F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="AF59" t="str">
         <f t="shared" si="3"/>
-        <v>~F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+ F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp; F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp; OP2+~F30&amp; F25&amp;~F14&amp;~F13&amp;~F12&amp; OP6&amp;~OP5&amp;~OP4&amp; OP3&amp; OP2+~F30&amp; F25&amp; F14&amp; F13&amp; F12&amp; OP6&amp;~OP5&amp;~OP4&amp; OP3&amp; OP2+ F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp;~OP4&amp; OP3&amp; OP2+ F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp;~OP4&amp; OP3&amp; OP2+</v>
+        <v>~F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+ F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp; F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp; OP2+~F30&amp; F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp; F25&amp; F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="AG59" t="str">
         <f t="shared" si="3"/>
-        <v>~F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+ F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp; F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F30&amp; F25&amp;~F14&amp;~F13&amp;~F12&amp; OP6&amp;~OP5&amp;~OP4&amp; OP3&amp; OP2+~F30&amp; F25&amp; F14&amp; F13&amp; F12&amp; OP6&amp;~OP5&amp;~OP4&amp; OP3&amp; OP2+ F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp;~OP4&amp; OP3&amp; OP2+</v>
+        <v>~F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+ F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp; F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F30&amp; F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp; F25&amp; F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="AH59" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve"> F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp;~OP4&amp; OP3&amp; OP2+</v>
+        <v xml:space="preserve"> F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="AI59" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve"> F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp;~OP4&amp; OP3&amp; OP2+</v>
+        <v xml:space="preserve"> F14&amp; F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="AJ59" t="str">
         <f t="shared" si="3"/>
@@ -16783,7 +16781,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
